--- a/xample/demo2/layout_tpl.xlsx
+++ b/xample/demo2/layout_tpl.xlsx
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="174">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -327,10 +327,30 @@
 StringVar name</t>
   </si>
   <si>
-    <t xml:space="preserve">Row</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Col</t>
+    <t xml:space="preserve">Row –</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <i val="true"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Col </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">|</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Rowspan</t>
@@ -428,6 +448,12 @@
     <t xml:space="preserve">Widget
 Variable
 Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Col</t>
   </si>
   <si>
     <t xml:space="preserve">(Optional)
@@ -897,7 +923,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -928,6 +954,22 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFA7074B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF3465A4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1122,7 +1164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1139,6 +1181,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1151,27 +1201,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1183,6 +1233,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1195,50 +1253,58 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1267,11 +1333,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1287,19 +1353,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1307,15 +1369,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1323,7 +1389,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1362,7 +1428,7 @@
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FFA7074B"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
@@ -1390,7 +1456,7 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF3465A4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
@@ -1416,7 +1482,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1432,71 +1498,71 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="4.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="5.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="6.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="5.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="6.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="10.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="23.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="42.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="3" width="16.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="7" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="G1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="true" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="14" customFormat="true" ht="70.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1504,8 +1570,8 @@
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1513,7 +1579,7 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -1522,7 +1588,7 @@
       <c r="F4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1530,7 +1596,7 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -1542,10 +1608,10 @@
       <c r="F5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1553,7 +1619,7 @@
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -1568,7 +1634,7 @@
       <c r="F6" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,7 +1642,7 @@
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1584,7 +1650,7 @@
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -1596,7 +1662,7 @@
       <c r="F8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1604,13 +1670,13 @@
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1625,205 +1691,204 @@
       <c r="F10" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" s="16" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4"/>
+      <c r="B34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4"/>
+      <c r="B36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4"/>
+      <c r="B37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4"/>
+      <c r="B38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4"/>
+      <c r="B39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4"/>
+      <c r="B40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4"/>
+      <c r="B41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4"/>
+      <c r="B42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4"/>
+      <c r="B43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4"/>
+      <c r="B44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4"/>
+      <c r="B45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4"/>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4"/>
+      <c r="B47" s="6"/>
     </row>
     <row r="66" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
@@ -1881,757 +1946,757 @@
   <sheetFormatPr defaultColWidth="12.046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="7.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="7.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="23.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="6.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="5.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="5.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="4.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="6.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="5.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="5.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="4.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="27.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="3" width="12.03"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="7" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="K1" s="5" t="s">
+      <c r="G1" s="8"/>
+      <c r="K1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+    <row r="2" s="34" customFormat="true" ht="78.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="25" t="s">
+      <c r="F2" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" s="32" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
+      <c r="K2" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" s="38" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>46</v>
+      <c r="C3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="38" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="34"/>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="39"/>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="34"/>
+      <c r="F7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="40"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>44</v>
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>44</v>
+      <c r="C9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>44</v>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>44</v>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>44</v>
+      <c r="C12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>44</v>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>44</v>
+      <c r="C14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="39"/>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="39"/>
+      <c r="E15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>44</v>
+      <c r="F15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="34"/>
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>44</v>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="39"/>
+      <c r="E17" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>44</v>
+      <c r="C18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>44</v>
+      <c r="C19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="C20" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="38"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="39"/>
+      <c r="C21" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="C22" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="40"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="34"/>
+      <c r="C24" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="40"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="C25" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="40"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="34"/>
+      <c r="C26" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="40"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
-      <c r="B27" s="40"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="0"/>
       <c r="D27" s="0"/>
       <c r="E27" s="0"/>
@@ -3657,7 +3722,7 @@
     </row>
     <row r="31" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3670,7 +3735,7 @@
     </row>
     <row r="32" s="1" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3714,269 +3779,269 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="12.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="41" width="78.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="47" width="78.09"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="3" width="11.86"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="7" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" s="5" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F2" s="42"/>
-    </row>
-    <row r="3" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="43" t="s">
+      <c r="F1" s="48" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+    <row r="2" s="7" customFormat="true" ht="8.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="F3" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="17" t="s">
+    </row>
+    <row r="4" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="D4" s="21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="E4" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="F4" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="43"/>
-    </row>
-    <row r="6" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="17" t="s">
+    </row>
+    <row r="5" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C5" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="F5" s="49"/>
+    </row>
+    <row r="6" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="43"/>
-    </row>
-    <row r="7" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="C6" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D6" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="43"/>
-    </row>
-    <row r="8" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="E6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="49"/>
+    </row>
+    <row r="7" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="43"/>
-    </row>
-    <row r="9" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="C7" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="F8" s="49"/>
+    </row>
+    <row r="9" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="C9" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="D9" s="21" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="11" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="F10" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="17" t="s">
+    </row>
+    <row r="11" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="B11" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="43"/>
-    </row>
-    <row r="12" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="C11" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D11" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="F11" s="49"/>
+    </row>
+    <row r="12" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="43"/>
-    </row>
-    <row r="13" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
+      <c r="C12" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="D12" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="F12" s="49"/>
+    </row>
+    <row r="13" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="B13" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="43" t="s">
+      <c r="C13" s="23" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="19" t="s">
+      <c r="D13" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="E13" s="24"/>
+      <c r="F13" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="19" t="s">
+    </row>
+    <row r="14" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="43"/>
-    </row>
-    <row r="15" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="19" t="s">
+      <c r="C14" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20" t="s">
+      <c r="D14" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="E14" s="24"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="23" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" s="17" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="43" t="s">
+      <c r="F15" s="49" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17" t="s">
+    <row r="16" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="F16" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="17" t="s">
+    </row>
+    <row r="17" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F17" s="43"/>
-    </row>
-    <row r="18" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="17" t="s">
+      <c r="B17" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C17" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="43"/>
-    </row>
-    <row r="19" s="17" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="F17" s="49"/>
+    </row>
+    <row r="18" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="43" t="s">
+      <c r="C18" s="21" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="20" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
+      <c r="F18" s="49"/>
+    </row>
+    <row r="19" s="21" customFormat="true" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="43"/>
+      <c r="F19" s="49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" s="21" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="49"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4002,211 +4067,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="22.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="96.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="46" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="52" width="22.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="52" width="96.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="52" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>125</v>
+      <c r="A1" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>127</v>
+      <c r="A2" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>129</v>
+      <c r="A3" s="55" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>131</v>
+      <c r="A4" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>133</v>
+      <c r="A5" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>135</v>
+      <c r="A6" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>137</v>
+      <c r="A7" s="55" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>139</v>
+      <c r="A8" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>141</v>
+      <c r="A9" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>143</v>
+      <c r="A10" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="56" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="50" t="s">
+      <c r="A11" s="55" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="56" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B12" s="50" t="s">
-        <v>143</v>
-      </c>
-    </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="50" t="s">
-        <v>148</v>
+      <c r="A13" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B14" s="50" t="s">
-        <v>150</v>
+      <c r="A14" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="50" t="s">
-        <v>152</v>
+      <c r="A15" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="56" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="B16" s="50" t="s">
-        <v>154</v>
+      <c r="A16" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>156</v>
+      <c r="A17" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="51"/>
+      <c r="A18" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="57"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>159</v>
+      <c r="A19" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>161</v>
+      <c r="A20" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>163</v>
+      <c r="A21" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="56" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>165</v>
+      <c r="A22" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>167</v>
+      <c r="A23" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>169</v>
+      <c r="A24" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="26" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52"/>
+      <c r="A25" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" s="59" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="58"/>
     </row>
   </sheetData>
   <hyperlinks>
